--- a/src/main/java/aa.xlsx
+++ b/src/main/java/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitg\SeleniumProjects\Selenium_Project\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E7F6A-9A3F-4577-B120-B73392A7C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4197EF-8163-4FAD-9A4F-EC1499E0B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6F2BA616-F8BF-4334-98B2-49800789C42B}"/>
   </bookViews>
@@ -668,9 +668,6 @@
     <t>Working with config files (YAML/JSON/XML/PROP or similar)</t>
   </si>
   <si>
-    <t>Has created reusable common functions</t>
-  </si>
-  <si>
     <t>Pipleline creation</t>
   </si>
   <si>
@@ -909,13 +906,45 @@
   </si>
   <si>
     <t>Can handle team of 8+ team members</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Has created reusable common function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Random no generator</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1020,27 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1527,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1548,12 +1598,294 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,298 +1895,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2281,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A6188-5C20-4D76-903E-965C2AD17B66}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2304,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="130.5">
+    <row r="2" spans="1:5" ht="188.5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29">
+    <row r="4" spans="1:5" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2372,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="145">
+    <row r="6" spans="1:5" ht="188.5">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2406,7 +2459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="116">
+    <row r="8" spans="1:5" ht="174">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2423,7 +2476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="188.5">
+    <row r="9" spans="1:5" ht="290">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -2436,7 +2489,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="391.5">
+    <row r="10" spans="1:5" ht="409.5">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2502,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="246.5">
+    <row r="11" spans="1:5" ht="319">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -2475,7 +2528,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="116">
+    <row r="13" spans="1:5" ht="145">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -2516,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B2873-8A45-4CE6-97AC-7BDB4EE75385}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2532,1483 +2585,1507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="27" t="e">
+      <c r="F3" s="47" t="e">
         <f t="array" ref="F3">_xlfn.IFS(AND(H3="Associate"),[1]Skill_Expectation!#REF!,AND(H3="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H3="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>#REF!</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="30"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="30"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="30"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="27" t="str">
+      <c r="E7" s="66"/>
+      <c r="F7" s="47" t="str">
         <f t="array" ref="F7">_xlfn.IFS(AND(H7="Associate"),[1]Skill_Expectation!#REF!,AND(H7="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H7="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="41"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="25" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="42"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="41"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="25" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="42"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="41"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="25" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="42"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="41"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="25" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="41"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="25" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="41"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="25" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="41"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="25" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="43"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="25" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" ht="409.5">
-      <c r="A16" s="48" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:9" ht="406">
+      <c r="A16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="52" t="e">
+      <c r="F16" s="24" t="e">
         <f t="array" ref="F16">_xlfn.IFS(AND(H16="Associate"),[1]Skill_Expectation!#REF!,AND(H16="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H16="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:9" ht="29">
+      <c r="A17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="52" t="str">
+      <c r="F17" s="24" t="str">
         <f t="array" ref="F17">_xlfn.IFS(AND(H17="Associate"),[1]Skill_Expectation!#REF!,AND(H17="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H17="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="56" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="27" t="e">
+      <c r="F18" s="47" t="e">
         <f t="array" ref="F18">_xlfn.IFS(AND(H18="Associate"),[1]Skill_Expectation!#REF!,AND(H18="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H18="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>#REF!</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="25" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="42"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="87"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="25" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="42"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="87"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="25" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="42"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="25" t="s">
+      <c r="A22" s="94"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="42"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="25" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="25" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="87"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5">
+      <c r="A24" s="94"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="87"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="94"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="25" t="s">
+      <c r="E25" s="91"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="94"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="91"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="94"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="94"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="25" t="s">
+      <c r="E28" s="91"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1">
+      <c r="A29" s="95"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="25" t="s">
+      <c r="E29" s="92"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="88"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="64" t="s">
+      <c r="C30" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="27" t="str">
+      <c r="E30" s="67"/>
+      <c r="F30" s="47" t="str">
         <f t="array" ref="F30">_xlfn.IFS(AND(H30="Associate"),[1]Skill_Expectation!#REF!,AND(H30="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H30="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="41"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="78"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="91"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="78"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="41"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="25" t="s">
+      <c r="E32" s="91"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="78"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="41"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="25" t="s">
+      <c r="E33" s="91"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="78"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="41"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="91"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="78"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="41"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="25" t="s">
+      <c r="E35" s="91"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="87"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1">
+      <c r="A36" s="79"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="42"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="92"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="88"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="68" t="s">
+      <c r="C37" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="D37" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="27" t="str">
+      <c r="E37" s="66"/>
+      <c r="F37" s="47" t="str">
         <f t="array" ref="F37">_xlfn.IFS(AND(H37="Associate"),[1]Skill_Expectation!#REF!,AND(H37="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H37="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="70"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="41"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="25" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="78"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="41"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="25" t="s">
+      <c r="E39" s="66"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="78"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="41"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="25" t="s">
+      <c r="E40" s="66"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="78"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="41"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="66"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="78"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="41"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="25" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="78"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="41"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="25" t="s">
+      <c r="E43" s="66"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="78"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="41"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="25" t="s">
+      <c r="E44" s="66"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="78"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="41"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="25" t="s">
+      <c r="E45" s="66"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="78"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="41"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="25" t="s">
+      <c r="E46" s="66"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="78"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="41"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="25" t="s">
+      <c r="E47" s="66"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" ht="29.5" thickBot="1">
+      <c r="A49" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="82"/>
+      <c r="C49" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="43"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="1:9" ht="44" thickBot="1">
-      <c r="A49" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="77" t="str">
+      <c r="F49" s="29" t="str">
         <f t="array" ref="F49">_xlfn.IFS(AND(H49="Associate"),[1]Skill_Expectation!#REF!,AND(H49="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H49="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G49" s="78" t="s">
+      <c r="G49" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="79" t="s">
+      <c r="H49" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="80"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="27" t="str">
+      <c r="E50" s="66"/>
+      <c r="F50" s="47" t="str">
         <f t="array" ref="F50">_xlfn.IFS(AND(H50="Associate"),[1]Skill_Expectation!#REF!,AND(H50="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H50="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H50" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I50" s="70"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="25" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="40"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="25" t="s">
+      <c r="E52" s="66"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="40"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="25" t="s">
+      <c r="E53" s="66"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="40"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="56"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="70"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="70"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="25" t="s">
+      <c r="E55" s="66"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="1:9" ht="29.5" thickBot="1">
+      <c r="A56" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="75"/>
+      <c r="C56" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="70"/>
-    </row>
-    <row r="56" spans="1:9" ht="44" thickBot="1">
-      <c r="A56" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="88" t="s">
+      <c r="D56" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="76" t="s">
+      <c r="E56" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="77" t="str">
+      <c r="F56" s="29" t="str">
         <f t="array" ref="F56">_xlfn.IFS(AND(H56="Associate"),[1]Skill_Expectation!#REF!,AND(H56="Senior Associate"),[1]Skill_Expectation!#REF!,AND(H56="Manager"),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H56" s="79" t="s">
+      <c r="H56" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I56" s="80"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="27" t="str">
+      <c r="E57" s="66"/>
+      <c r="F57" s="47" t="str">
         <f t="array" ref="F57">_xlfn.IFS(AND(H57=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="37">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="40"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H57" s="29">
-        <v>0</v>
-      </c>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="84"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="25" t="s">
+      <c r="E58" s="66"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="40"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="84"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90" t="s">
+      <c r="E59" s="66"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="40"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="84"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="66"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="40"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="84"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="25" t="s">
+      <c r="E61" s="66"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="40"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="70"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="84"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="25" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="40"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="70"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="84"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="25" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="40"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="70"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="84"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="56"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="70"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="86"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="25" t="s">
+      <c r="E65" s="66"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="70"/>
+      <c r="C66" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="70"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="89" t="s">
+      <c r="D66" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="27" t="str">
+      <c r="E66" s="66"/>
+      <c r="F66" s="47" t="str">
         <f t="array" ref="F66">_xlfn.IFS(AND(H66=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G66" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="92">
+      <c r="G66" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="36">
         <v>0</v>
       </c>
-      <c r="I66" s="70"/>
+      <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="84"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="25" t="s">
+      <c r="A67" s="40"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="66"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="40"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="70"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="84"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="25" t="s">
+      <c r="E68" s="66"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="38"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="40"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="70"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="84"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="25" t="s">
+      <c r="E69" s="66"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="40"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="34"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="70"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="84"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="25" t="s">
+      <c r="E70" s="66"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="40"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="70"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="84"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="25" t="s">
+      <c r="E71" s="66"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="38"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="40"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="70"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="84"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="25" t="s">
+      <c r="E72" s="66"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="40"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="70"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="84"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="25" t="s">
+      <c r="E73" s="66"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="40"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="70"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="84"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="25" t="s">
+      <c r="E74" s="66"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="40"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="70"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="84"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="25" t="s">
+      <c r="E75" s="66"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="40"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="70"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="84"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="25" t="s">
+      <c r="E76" s="66"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="38"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="56"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="70"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="86"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="25" t="s">
+      <c r="E77" s="66"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="38"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="70"/>
+      <c r="C78" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="70"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="89" t="s">
+      <c r="D78" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="27" t="str">
+      <c r="E78" s="66"/>
+      <c r="F78" s="47" t="str">
         <f t="array" ref="F78">_xlfn.IFS(AND(H78=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G78" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="H78" s="92">
+      <c r="G78" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="36">
         <v>0</v>
       </c>
-      <c r="I78" s="70"/>
+      <c r="I78" s="38"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="84"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="25" t="s">
+      <c r="A79" s="40"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="66"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="38"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="40"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="70"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="84"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="25" t="s">
+      <c r="E80" s="66"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="38"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="56"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="34"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="70"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="86"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="25" t="s">
+      <c r="E81" s="66"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="70"/>
+      <c r="C82" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="70"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" s="34"/>
-      <c r="F82" s="93" t="str">
+      <c r="E82" s="66"/>
+      <c r="F82" s="44" t="str">
         <f t="array" ref="F82">_xlfn.IFS(AND(H82=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G82" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="H82" s="46">
+      <c r="G82" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" s="69">
         <v>0</v>
       </c>
-      <c r="I82" s="70"/>
+      <c r="I82" s="38"/>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="96" t="s">
+      <c r="A83" s="56"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="38"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="66"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="70"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="23" t="s">
+      <c r="C84" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="98" t="s">
+      <c r="D84" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" s="91"/>
-      <c r="F84" s="27" t="str">
+      <c r="E84" s="62"/>
+      <c r="F84" s="47" t="str">
         <f t="array" ref="F84">_xlfn.IFS(AND(H84=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G84" s="91" t="s">
+      <c r="G84" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="H84" s="36">
+        <v>0</v>
+      </c>
+      <c r="I84" s="38"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="40"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H84" s="92">
-        <v>0</v>
-      </c>
-      <c r="I84" s="70"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="84"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="25" t="s">
+      <c r="E85" s="62"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="38"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="40"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="91"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="70"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="84"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="25" t="s">
+      <c r="E86" s="62"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="38"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="56"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E86" s="91"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="70"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="86"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="96" t="s">
+      <c r="E87" s="50"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E87" s="28"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="70"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="100" t="s">
+      <c r="D88" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="93"/>
-      <c r="F88" s="27" t="str">
+      <c r="E88" s="44"/>
+      <c r="F88" s="47" t="str">
         <f t="array" ref="F88">_xlfn.IFS(AND(H88=1),[1]Skill_Expectation!#REF!,"TRUE","NO SKILL")</f>
         <v>NO SKILL</v>
       </c>
-      <c r="G88" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H88" s="29">
+      <c r="G88" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H88" s="37">
         <v>0</v>
       </c>
-      <c r="I88" s="70"/>
+      <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="84"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="25" t="s">
+      <c r="A89" s="40"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="45"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="38"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="40"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="101"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="70"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="84"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="25" t="s">
+      <c r="E90" s="45"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="38"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="40"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="101"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="70"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="84"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="25" t="s">
+      <c r="E91" s="45"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="38"/>
+    </row>
+    <row r="92" spans="1:9" ht="32" customHeight="1" thickBot="1">
+      <c r="A92" s="41"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="101"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="70"/>
-    </row>
-    <row r="92" spans="1:9" ht="32" customHeight="1" thickBot="1">
-      <c r="A92" s="102"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" s="105"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="109"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="55"/>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1">
-      <c r="A93" s="110"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="111"/>
-      <c r="I93" s="111"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="112"/>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="112"/>
-      <c r="I94" s="112"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="112"/>
-      <c r="B95" s="112"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="112"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="112"/>
-      <c r="G95" s="112"/>
-      <c r="H95" s="112"/>
-      <c r="I95" s="112"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="I88:I92"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B29"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="H7:H15"/>
+    <mergeCell ref="I7:I15"/>
+    <mergeCell ref="I18:I29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="E18:E29"/>
+    <mergeCell ref="F18:F29"/>
+    <mergeCell ref="G18:G29"/>
+    <mergeCell ref="H18:H29"/>
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="I37:I48"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B49"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="E37:E48"/>
+    <mergeCell ref="F37:F48"/>
+    <mergeCell ref="G37:G48"/>
     <mergeCell ref="H57:H65"/>
     <mergeCell ref="I57:I65"/>
     <mergeCell ref="A66:A77"/>
@@ -4025,58 +4102,34 @@
     <mergeCell ref="F57:F65"/>
     <mergeCell ref="G57:G65"/>
     <mergeCell ref="A78:A81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
     <mergeCell ref="C78:C81"/>
     <mergeCell ref="E78:E81"/>
     <mergeCell ref="F78:F81"/>
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="I37:I48"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B49"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="E37:E48"/>
-    <mergeCell ref="F37:F48"/>
-    <mergeCell ref="G37:G48"/>
-    <mergeCell ref="I18:I29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="I30:I36"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="E18:E29"/>
-    <mergeCell ref="F18:F29"/>
-    <mergeCell ref="G18:G29"/>
-    <mergeCell ref="H18:H29"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="H7:H15"/>
-    <mergeCell ref="I7:I15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B29"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="I88:I92"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
   </mergeCells>
   <conditionalFormatting sqref="A84:A87">
     <cfRule type="expression" dxfId="7" priority="2">
